--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royshadmon/Perf-Tracing-Postgres-MariaDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5323877-224C-9A4C-AF2D-9D656A3FC9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF97314-FE20-8945-8B81-1CB9B4B9C8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1700" windowWidth="25180" windowHeight="17440" activeTab="1" xr2:uid="{A76E0A23-3166-6A4B-BB9C-C2F303417CCE}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="25180" windowHeight="17440" activeTab="1" xr2:uid="{A76E0A23-3166-6A4B-BB9C-C2F303417CCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary key index test" sheetId="1" r:id="rId1"/>
@@ -1339,7 +1339,7 @@
   <dimension ref="C4:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,6 +1525,9 @@
       <c r="C11">
         <v>10000</v>
       </c>
+      <c r="D11">
+        <v>0.13134000000000001</v>
+      </c>
       <c r="E11">
         <v>0.84723999999999999</v>
       </c>
@@ -1536,6 +1539,9 @@
       </c>
       <c r="I11">
         <v>10000</v>
+      </c>
+      <c r="J11">
+        <v>1140010</v>
       </c>
       <c r="K11">
         <v>460091</v>
@@ -1719,6 +1725,9 @@
       <c r="C21">
         <v>10000</v>
       </c>
+      <c r="D21">
+        <v>896305</v>
+      </c>
       <c r="E21">
         <v>641230</v>
       </c>
@@ -1730,6 +1739,9 @@
       </c>
       <c r="I21">
         <v>10000</v>
+      </c>
+      <c r="J21">
+        <v>0.48</v>
       </c>
       <c r="K21">
         <v>0.27</v>
@@ -1913,6 +1925,9 @@
       <c r="C31">
         <v>10000</v>
       </c>
+      <c r="D31">
+        <v>74642946</v>
+      </c>
       <c r="E31">
         <v>56846883</v>
       </c>
@@ -1924,6 +1939,9 @@
       </c>
       <c r="I31">
         <v>10000</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.1E-2</v>
       </c>
       <c r="K31" s="3">
         <v>6.1100000000000002E-2</v>
